--- a/biology/Botanique/Zostère/Zostère.xlsx
+++ b/biology/Botanique/Zostère/Zostère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zostera
 Les zostères sont des herbes marines, plantes aquatiques marines appartenant au genre Zostera (famille des Zostéracées) qui se développent dans les sédiments sableux et sablo-vaseux intertidaux et infralittoraux. Ce genre largement répandu dans le monde comprend entre 5 et 13 espèces selon les sources.
-Les zostères sont en régression (parfois brutale[1]) dans une grande partie de leurs habitats, par exemple dans le bassin d'Arcachon[2] et dans l'étang de Berre[3] (où une campagne de réintroduction a eu lieu en mai 2024, voir Réintroduction de la zostére dans l'étang de Berre[4]); sans doute à la suite d'effets synergiques impliquant des eutrophisants, des pesticides (agricoles, mais aussi provenant des antifoulings), hausse de la turbidité[5], des polluants métalliques, des microbes/parasitoses[6],[7] et peut-être le réchauffement climatique.
+Les zostères sont en régression (parfois brutale) dans une grande partie de leurs habitats, par exemple dans le bassin d'Arcachon et dans l'étang de Berre (où une campagne de réintroduction a eu lieu en mai 2024, voir Réintroduction de la zostére dans l'étang de Berre); sans doute à la suite d'effets synergiques impliquant des eutrophisants, des pesticides (agricoles, mais aussi provenant des antifoulings), hausse de la turbidité, des polluants métalliques, des microbes/parasitoses, et peut-être le réchauffement climatique.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Zostera dérive du grec ancien ζωστήρ zoster signifiant ceinture[8], en référence à la forme des feuilles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Zostera dérive du grec ancien ζωστήρ zoster signifiant ceinture, en référence à la forme des feuilles.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes marines herbacées, généralement vivaces, à feuilles en forme de rubans de 20 à 120 cm de long et 0,5 à 1,5 cm de large selon les espèces, de couleur vert brillant.
 Ces feuilles s'insèrent sur de courtes tiges portées par des rhizomes ramifiés blancs.
 Les fleurs sont encloses dans les gaines à la base des feuilles. Ces fleurs très simplifiées sont soit mâle (une étamine), soit femelle (un carpelle).
 Les fruits vésiculeux peuvent flotter.
-La diagnose du genre est, pour les parties stériles, la suivante[9] :
+La diagnose du genre est, pour les parties stériles, la suivante :
 feuille avec gaine à la base et portant une ligule à la jonction de la gaine et du limbe ;
 feuille sans cellules à tanin ;
 rhizome non comprimé, avec  inter-nœuds de plus de 2 mm de long ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,11 +600,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ces herbes aquatiques, marines, forment des herbiers marins. Les zostères sont présentes dans les mers de tous les continents du globe.
 On les trouve dans les sédiments sableux ou dans les estuaires (étage infralittoral), entièrement submergées ou partiellement flottantes.
-Plus précisément[9] :
+Plus précisément :
 Zostera asiatica a été trouvée dans les îles Kouriles et à Hokkaidō (Japon) ;
 Zostera caespitosa a été identifiée sur les côtes de l'île de Honshū (Japon) ;
 Zostera caulescens a été identifiée dans des zones limitées de Corée et du Japon ;
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,12 +644,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les herbiers de zostères jouent un rôle important dans le dépôt des sédiments, la stabilisation des substrats ainsi que comme support pour les algues épiphytes et les micro-invertébrés[11].
-Ils forment aussi un milieu favorable à la reproduction de nombreuses espèces de poissons et de coquillages économiquement importantes. La conservation de leur diversité génétique pourrait être importante pour la résilience écologique des milieux littoraux face aux dérèglements climatiques, à l'acidification des océans et à la montée de la mer[12]. Elle est consommée par certains oiseaux[13].
-Dans les baies où elles ont besoin de certaines conditions d'éclairement[14], et dans certains estuaires où elles utilisent certaines capacités d'adaptation au manque de lumière (photoadaptation)[15]. Les feuilles de zostères détachées de leurs substrat enrichissent la laisse de mer qui a également une importance trophique et pour la stabilisation des plages ou dunes.
-Dans les années 1930, un parasite unicellulaire (Labyrinthula zosterae) a provoqué un dépérissement des zostères, tuant 90 % de la biomasse[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les herbiers de zostères jouent un rôle important dans le dépôt des sédiments, la stabilisation des substrats ainsi que comme support pour les algues épiphytes et les micro-invertébrés.
+Ils forment aussi un milieu favorable à la reproduction de nombreuses espèces de poissons et de coquillages économiquement importantes. La conservation de leur diversité génétique pourrait être importante pour la résilience écologique des milieux littoraux face aux dérèglements climatiques, à l'acidification des océans et à la montée de la mer. Elle est consommée par certains oiseaux.
+Dans les baies où elles ont besoin de certaines conditions d'éclairement, et dans certains estuaires où elles utilisent certaines capacités d'adaptation au manque de lumière (photoadaptation). Les feuilles de zostères détachées de leurs substrat enrichissent la laisse de mer qui a également une importance trophique et pour la stabilisation des plages ou dunes.
+Dans les années 1930, un parasite unicellulaire (Labyrinthula zosterae) a provoqué un dépérissement des zostères, tuant 90 % de la biomasse.
 			Inhabituel sur la façade atlantique, une laisse de mer  principalement constituée de feuilles de zostères, plante à fleur équivalent atlantique de la posidonie, et de rares algues vertes (Morgat, baie de Douarnenez)
 			Les herbiers sont des habitats pour de nombreuses espèces. Les feuilles de zostères elles-mêmes sont le support d'algues épiphytes
 			Mini-banquettes de Zostera noltii (Zostères naine) à Port Saint-Louis-du-Rhône
@@ -645,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,7 +683,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sont actuellement acceptées dans ce genre :
 </t>
@@ -676,7 +698,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -694,9 +716,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une trace du genre Zostera a été exhumée de la flore Heersienne de Gelinden en Belgique[17] et attribuée à l'espèce fossile Zostera nodosa (Brongn.) Sap. et Mar.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une trace du genre Zostera a été exhumée de la flore Heersienne de Gelinden en Belgique et attribuée à l'espèce fossile Zostera nodosa (Brongn.) Sap. et Mar.
 </t>
         </is>
       </c>
@@ -707,7 +731,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zost%C3%A8re</t>
+          <t>Zostère</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -725,11 +749,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe les zostères étaient autrefois utilisées pour rembourrer les matelas et paillasses[18]. Elles ont aussi parfois été utilisées pour recouvrir les toitures, notamment au Danemark[19]. On les récoltait aussi pour les répandre dans les champs comme engrais.
-Cette plante produit en été des composés phénoliques qui semblent jouer un rôle pour sa protection immunitaire[20] et elle est riche en nutriments[21]. Certains Amérindiens de l'île de Vancouver et de la côte de la Colombie-Britannique  consommaient le rhizome cru et le donnaient comme nourriture aux oiseaux domestiqués et au bétail[22],[23].
-Ils consommaient, lors de grandes occasions, les tiges et rhizomes de cette zostère trempés dans l'huile d'un poisson, Thaleichthys pacificus[24], ou alors ils récoltaient sur la côte les feuilles de cette zostère portant des œufs de Clupeidae et mangeaient le tout[22],[23],[25]. La plante entière était aussi utilisée comme herbe aromatique pour parfumer la viande de phoque, de marsouin ou de cervidés[26].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe les zostères étaient autrefois utilisées pour rembourrer les matelas et paillasses. Elles ont aussi parfois été utilisées pour recouvrir les toitures, notamment au Danemark. On les récoltait aussi pour les répandre dans les champs comme engrais.
+Cette plante produit en été des composés phénoliques qui semblent jouer un rôle pour sa protection immunitaire et elle est riche en nutriments. Certains Amérindiens de l'île de Vancouver et de la côte de la Colombie-Britannique  consommaient le rhizome cru et le donnaient comme nourriture aux oiseaux domestiqués et au bétail,.
+Ils consommaient, lors de grandes occasions, les tiges et rhizomes de cette zostère trempés dans l'huile d'un poisson, Thaleichthys pacificus, ou alors ils récoltaient sur la côte les feuilles de cette zostère portant des œufs de Clupeidae et mangeaient le tout. La plante entière était aussi utilisée comme herbe aromatique pour parfumer la viande de phoque, de marsouin ou de cervidés.
 Les zostères ont servi de nourriture à la tribu amérindienne des Seris (Mexique), les rhizomes et la base des feuilles étaient consommées à l'état frais, ou séchées sous forme de gâteaux pour l'hiver.
 À la fin du XIXe siècle, les zostères ont été utilisées sous forme de briquettes pour servir de bourrage obturant dans les « cofferdams » des cuirassés français comme l'Iéna.[réf. nécessaire]
 </t>
